--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value887.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value887.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.332770275623236</v>
+        <v>3.104696273803711</v>
       </c>
       <c r="B1">
-        <v>2.420171952790607</v>
+        <v>2.49763011932373</v>
       </c>
       <c r="C1">
-        <v>2.989365310491374</v>
+        <v>1.847217440605164</v>
       </c>
       <c r="D1">
-        <v>3.444524713217342</v>
+        <v>1.72240686416626</v>
       </c>
       <c r="E1">
-        <v>1.476522035797424</v>
+        <v>1.644418597221375</v>
       </c>
     </row>
   </sheetData>
